--- a/data/trans_camb/P6903-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P6903-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P6903-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P6903-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,44</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,35</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,3</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,84</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,36</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,41</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,19</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,65</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,69</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,03; 40,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,27; 33,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,19; 64,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,54; 49,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,98; 55,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,04; 51,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,15; 34,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,16; 33,87</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,86; 37,78</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,61%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,02%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,51%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,26%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,45%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,52%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,35%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,21%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,36%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,94; 135,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,07; 118,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 186,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,94; 301,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,21; 388,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,75; 312,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,49; 133,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,41; 119,19</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,93; 144,56</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,59</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,72</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,61</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,41</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,89</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,67</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,74</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,18</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,66; 5,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,22; 16,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,66; 28,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,04; 25,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,56; 24,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,25; 34,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,93; 7,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,03; 14,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,59; 24,26</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,68%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,07%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,09%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,9%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>59,24%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,24%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,71%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,0%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,44; 19,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,83; 54,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,53; 92,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,13; 133,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,2; 118,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,39; 171,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,81; 29,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,52; 53,96</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,61; 91,72</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,7</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,75</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,15</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,47</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,14</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,53</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,55</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,9</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,46; 4,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,13; 13,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,82; 7,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,31; 21,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,11; 27,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,93; 21,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,49; 7,95</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,34; 15,88</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,94; 8,68</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,48%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,82%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,36%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,66%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,69%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,39%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,17%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,63%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,67; 16,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,22; 47,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,6; 26,53</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,69; 97,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,7; 119,02</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,53; 101,82</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,81; 28,59</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,58; 54,78</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,79; 28,93</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,07</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,12</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,29</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,14</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,1</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,8</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,64</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,74</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,93; 6,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,27; 27,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,1; 23,71</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,25; 8,04</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,73; 22,87</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,3; 24,75</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,17; 1,77</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,7; 22,5</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,87; 22,67</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,54%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,26%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,39%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,56%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,99%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,56%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,7%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,42%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,99; 33,1</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,51; 129,36</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,05; 117,93</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,49; 28,65</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,44; 87,71</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,78; 97,66</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,94; 7,19</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,24; 95,0</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,23; 98,39</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,26</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>27,25</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,6</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,27</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,2</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,97</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,86</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>24,82</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,54</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,61; 11,09</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,54; 44,95</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,07; 32,87</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,22; 45,56</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,51; 44,82</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,96; 40,24</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,3; 19,07</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,72; 40,86</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,45; 29,79</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,4%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>162,54%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>104,95%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,33%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,56%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,79%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,76%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>127,12%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,05%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,9; 145,17</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,79; 511,76</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,39; 380,43</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,65; 508,19</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,04; 556,15</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,88; 547,32</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,45; 163,2</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,49; 326,83</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,36; 236,23</t>
         </is>
       </c>
     </row>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,92</t>
         </is>
       </c>
     </row>
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,77</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,25</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,63</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,91</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,76</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,88</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,18</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,54</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,66</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,03; -1,01</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,54; 14,48</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,13; 11,49</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,18; 13,04</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,29; 20,53</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,58; 20,0</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,02; 2,76</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,87; 14,49</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,98; 12,87</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,58%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,95%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,5%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,71%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,95%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,6%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,15%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,25%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,46%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,26; -4,26</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,78; 51,56</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,79; 41,65</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,61; 51,28</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,88; 78,05</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,6; 75,35</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,26; 10,46</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,59; 49,2</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,79; 44,22</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P6903-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P6903-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,3</t>
+          <t>-7,17</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,41</t>
+          <t>9,98</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,69</t>
+          <t>2,06</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-43,19; 64,12</t>
+          <t>-43,43; 63,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-22,04; 51,59</t>
+          <t>-24,92; 48,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-21,86; 37,78</t>
+          <t>-23,83; 34,44</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-11,51%</t>
+          <t>-19,21%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>41,52%</t>
+          <t>33,39%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>13,36%</t>
+          <t>5,87%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 186,05</t>
+          <t>-100,0; 181,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-62,75; 312,18</t>
+          <t>-65,7; 274,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-58,93; 144,56</t>
+          <t>-62,57; 121,13</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,72</t>
+          <t>7,45</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>15,89</t>
+          <t>14,97</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>11,18</t>
+          <t>10,1</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,66; 28,17</t>
+          <t>-11,01; 28,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 34,43</t>
+          <t>-1,6; 33,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 24,26</t>
+          <t>-2,75; 23,48</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>25,07%</t>
+          <t>21,42%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>59,24%</t>
+          <t>55,82%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>35,0%</t>
+          <t>31,61%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-28,53; 92,53</t>
+          <t>-32,21; 88,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 171,54</t>
+          <t>-7,95; 167,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 91,72</t>
+          <t>-8,18; 88,95</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-6,75</t>
+          <t>-7,99</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>7,14</t>
+          <t>6,59</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>-1,92</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-19,82; 7,85</t>
+          <t>-21,27; 6,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 21,89</t>
+          <t>-8,45; 20,94</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-10,94; 8,68</t>
+          <t>-11,7; 7,73</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-18,82%</t>
+          <t>-22,26%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>22,69%</t>
+          <t>20,96%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-2,63%</t>
+          <t>-5,6%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-48,6; 26,53</t>
+          <t>-51,45; 21,84</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-21,53; 101,82</t>
+          <t>-22,95; 98,84</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-27,79; 28,93</t>
+          <t>-30,03; 25,94</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>11,29</t>
+          <t>10,26</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,1</t>
+          <t>-2,53</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>11,74</t>
+          <t>7,01</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 23,71</t>
+          <t>-2,18; 22,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-14,3; 24,75</t>
+          <t>-27,74; 17,74</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,87; 22,67</t>
+          <t>-7,29; 18,12</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>42,39%</t>
+          <t>38,53%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>12,99%</t>
+          <t>-6,43%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>39,42%</t>
+          <t>23,55%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 117,93</t>
+          <t>-5,99; 114,08</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-26,78; 97,66</t>
+          <t>-53,19; 63,26</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>6,23; 98,39</t>
+          <t>-19,84; 76,1</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>17,6</t>
+          <t>16,89</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>15,97</t>
+          <t>16,05</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>19,54</t>
+          <t>19,14</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,07; 32,87</t>
+          <t>1,07; 32,13</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-14,96; 40,24</t>
+          <t>-14,84; 40,07</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>6,45; 29,79</t>
+          <t>6,11; 29,42</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>104,95%</t>
+          <t>100,73%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>55,79%</t>
+          <t>56,06%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>100,05%</t>
+          <t>98,03%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>0,39; 380,43</t>
+          <t>-1,72; 363,29</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-27,88; 547,32</t>
+          <t>-27,47; 548,91</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>17,36; 236,23</t>
+          <t>15,87; 231,37</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1717,12 +1717,12 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1747,12 +1747,12 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>16,92</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1918,7 +1918,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-7,77</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>7,25</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>3,63</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>3,91</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>10,76</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>11,88</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-3,18</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>8,54</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>7,66</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-14,03; -1,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 14,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 11,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 13,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>2,29; 20,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>3,58; 20,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 2,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>2,87; 14,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>1,98; 12,87</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-24,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>22,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>12,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>34,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>38,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-10,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>27,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>24,46%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>-7,77</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>7,25</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>2,6</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>3,91</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>10,76</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>8,32</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>-3,18</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>8,54</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>5,37</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-14,03; -1,01</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-0,54; 14,48</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-3,93; 10,64</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-5,18; 13,04</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>2,29; 20,53</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-3,83; 16,43</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-8,02; 2,76</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>2,87; 14,49</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-2,08; 10,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>-24,58%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>22,95%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>8,23%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>12,71%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>34,95%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>27,02%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>-10,15%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>27,25%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>17,13%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-41,26; -4,26</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-0,78; 51,56</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-8,79; 41,65</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-11,42; 37,69</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>-14,61; 51,28</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>5,88; 78,05</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>8,6; 75,35</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-9,97; 62,28</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>-24,26; 10,46</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>7,59; 49,2</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>5,79; 44,22</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>-6,1; 36,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P6903-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P6903-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-25,03; 40,3</t>
+          <t>-27,15; 41,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-21,27; 33,52</t>
+          <t>-20,16; 35,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-43,43; 63,37</t>
+          <t>-42,47; 70,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-24,54; 49,02</t>
+          <t>-27,21; 49,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-12,98; 55,82</t>
+          <t>-13,02; 57,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-24,92; 48,75</t>
+          <t>-27,17; 49,96</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-16,15; 34,73</t>
+          <t>-17,9; 32,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-13,16; 33,87</t>
+          <t>-10,51; 32,47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-23,83; 34,44</t>
+          <t>-24,76; 34,71</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-63,94; 135,94</t>
+          <t>-64,98; 150,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-53,07; 118,97</t>
+          <t>-46,01; 134,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 181,58</t>
+          <t>-100,0; 229,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-67,94; 301,28</t>
+          <t>-66,78; 309,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-31,21; 388,72</t>
+          <t>-36,17; 388,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-65,7; 274,22</t>
+          <t>-71,4; 310,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-42,49; 133,35</t>
+          <t>-45,19; 115,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-31,41; 119,19</t>
+          <t>-28,11; 115,98</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-62,57; 121,13</t>
+          <t>-63,93; 128,77</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-20,66; 5,4</t>
+          <t>-21,26; 7,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,22; 16,43</t>
+          <t>-10,36; 19,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,01; 28,0</t>
+          <t>-11,72; 28,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 25,77</t>
+          <t>-8,28; 23,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,56; 24,21</t>
+          <t>-10,05; 22,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 33,29</t>
+          <t>-3,45; 32,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-11,93; 7,65</t>
+          <t>-11,5; 8,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 14,74</t>
+          <t>-6,29; 15,35</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 23,48</t>
+          <t>-4,33; 23,42</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-54,44; 19,18</t>
+          <t>-52,46; 29,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-30,83; 54,81</t>
+          <t>-26,04; 62,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-32,21; 88,82</t>
+          <t>-29,91; 97,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,13; 133,41</t>
+          <t>-24,44; 121,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-29,2; 118,76</t>
+          <t>-30,56; 111,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 167,81</t>
+          <t>-11,06; 165,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-32,81; 29,23</t>
+          <t>-32,34; 32,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-19,52; 53,96</t>
+          <t>-17,08; 57,78</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 88,95</t>
+          <t>-12,32; 82,32</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-20,46; 4,87</t>
+          <t>-19,95; 5,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,13; 13,9</t>
+          <t>-10,04; 14,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-21,27; 6,42</t>
+          <t>-20,46; 5,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,31; 21,52</t>
+          <t>-11,3; 21,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 27,91</t>
+          <t>-2,43; 28,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 20,94</t>
+          <t>-7,74; 21,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-12,49; 7,95</t>
+          <t>-12,6; 6,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 15,88</t>
+          <t>-5,23; 15,62</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-11,7; 7,73</t>
+          <t>-11,11; 7,33</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-49,67; 16,65</t>
+          <t>-47,92; 20,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-30,22; 47,29</t>
+          <t>-25,49; 48,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-51,45; 21,84</t>
+          <t>-49,28; 18,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-28,69; 97,95</t>
+          <t>-30,37; 93,88</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-10,7; 119,02</t>
+          <t>-7,4; 128,73</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-22,95; 98,84</t>
+          <t>-19,25; 102,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-32,81; 28,59</t>
+          <t>-32,96; 22,72</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-11,58; 54,78</t>
+          <t>-13,33; 51,97</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-30,03; 25,94</t>
+          <t>-28,33; 24,45</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-18,93; 6,33</t>
+          <t>-20,2; 5,24</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 27,37</t>
+          <t>-2,22; 26,49</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 22,81</t>
+          <t>-3,24; 23,5</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-35,25; 8,04</t>
+          <t>-36,15; 7,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-17,73; 22,87</t>
+          <t>-17,51; 23,42</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-27,74; 17,74</t>
+          <t>-27,14; 17,32</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-20,17; 1,77</t>
+          <t>-19,79; 1,54</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 22,5</t>
+          <t>0,44; 22,49</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 18,12</t>
+          <t>-10,45; 17,57</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-56,99; 33,1</t>
+          <t>-60,37; 25,96</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 129,36</t>
+          <t>-6,92; 132,39</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 114,08</t>
+          <t>-11,2; 118,1</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-73,49; 28,65</t>
+          <t>-71,05; 31,99</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-34,44; 87,71</t>
+          <t>-35,8; 96,6</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-53,19; 63,26</t>
+          <t>-53,59; 56,24</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-56,94; 7,19</t>
+          <t>-56,5; 6,9</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 95,0</t>
+          <t>0,87; 92,91</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-19,84; 76,1</t>
+          <t>-26,56; 69,15</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-18,61; 11,09</t>
+          <t>-18,38; 10,78</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,54; 44,95</t>
+          <t>8,87; 45,29</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,07; 32,13</t>
+          <t>0,36; 31,04</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-17,22; 45,56</t>
+          <t>-18,16; 44,87</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-14,51; 44,82</t>
+          <t>-18,39; 45,56</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-14,84; 40,07</t>
+          <t>-11,09; 39,73</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-10,3; 19,07</t>
+          <t>-11,45; 18,85</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>7,72; 40,86</t>
+          <t>8,17; 40,16</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>6,11; 29,42</t>
+          <t>6,28; 31,09</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-76,9; 145,17</t>
+          <t>-82,81; 126,33</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>30,79; 511,76</t>
+          <t>30,85; 541,15</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 363,29</t>
+          <t>-3,43; 353,81</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-41,65; 508,19</t>
+          <t>-43,97; 482,86</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-33,04; 556,15</t>
+          <t>-38,2; 438,56</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-27,47; 548,91</t>
+          <t>-22,6; 531,37</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-42,45; 163,2</t>
+          <t>-44,87; 160,7</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>28,49; 326,83</t>
+          <t>28,94; 336,36</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>15,87; 231,37</t>
+          <t>20,8; 265,97</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-14,03; -1,01</t>
+          <t>-14,13; -1,34</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 14,48</t>
+          <t>0,2; 14,16</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 10,64</t>
+          <t>-4,73; 10,38</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 13,04</t>
+          <t>-5,4; 12,8</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>2,29; 20,53</t>
+          <t>2,1; 19,88</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 16,43</t>
+          <t>-4,25; 17,25</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 2,76</t>
+          <t>-8,19; 1,88</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>2,87; 14,49</t>
+          <t>3,17; 14,26</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 10,77</t>
+          <t>-1,51; 10,88</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-41,26; -4,26</t>
+          <t>-40,79; -4,91</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 51,56</t>
+          <t>0,38; 50,01</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-11,42; 37,69</t>
+          <t>-14,09; 35,78</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-14,61; 51,28</t>
+          <t>-15,47; 48,02</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>5,88; 78,05</t>
+          <t>6,26; 78,9</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-9,97; 62,28</t>
+          <t>-10,7; 64,66</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-24,26; 10,46</t>
+          <t>-24,12; 6,57</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>7,59; 49,2</t>
+          <t>9,51; 50,71</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 36,57</t>
+          <t>-4,53; 36,91</t>
         </is>
       </c>
     </row>
